--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP51"/>
+  <dimension ref="A1:AP52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11259,6 +11259,50 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
